--- a/My_PROYEC_FING_G1/ELICITACION/1.1.BacklogEJ/BacklogEJ.xlsx
+++ b/My_PROYEC_FING_G1/ELICITACION/1.1.BacklogEJ/BacklogEJ.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
   <si>
     <t>Nª</t>
   </si>
@@ -50,72 +50,148 @@
     <t>REQ001</t>
   </si>
   <si>
+    <t>INGRESO COMO ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>El administrador tendra acceso total al aplicativo,para su devida gestion.</t>
+  </si>
+  <si>
+    <t>ACCEDER A TODAS LAS FUNCIONES QUE BRINDA EL PROGRAMA</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>EN PROCESO</t>
+  </si>
+  <si>
+    <t>REQ002</t>
+  </si>
+  <si>
     <t>REGISTRO DE UN NUEVO USUARIO</t>
   </si>
   <si>
-    <t>ADMINISTRADOR O EMPLEADOS DE LA EMPRESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario pueda acceder y aprovechar de los benefcicios que ofrece el aplicativo
-</t>
-  </si>
-  <si>
-    <t>ACCEDER A TODAS LAS FUNCIONES QUE BRINDA EL PROGRAMA</t>
-  </si>
-  <si>
-    <t>SOLO EL ADMINISTRADOR COMO GERENTE Y LOS EMPLEADOS</t>
-  </si>
-  <si>
-    <t>ALTA</t>
+    <t xml:space="preserve">El administrador registrara al nuevo empleado como usuario para inicio de sesion al programa  </t>
+  </si>
+  <si>
+    <t>Tener el control total de quien puede registrarse como usuario y a su vez, que los nuevos empleados puedan ingresar con un usuario asignado para que puedan acceder a la informacion en el programa.</t>
   </si>
   <si>
     <t>Sin Comenzar</t>
   </si>
   <si>
-    <t>REQ002</t>
-  </si>
-  <si>
-    <t>ORGANIZACIÓN DE INVENTARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONOCIMIENTO DEL NUMERO DE CADA PRENDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SABER EL STOCK
-</t>
-  </si>
-  <si>
-    <t>SE DETALLA LA CANTIDAD Y TALLAS DE LOS PRODUCTOS</t>
-  </si>
-  <si>
     <t>REQ003</t>
   </si>
   <si>
-    <t>SISTEMA FACIL DE UTILIZAR</t>
-  </si>
-  <si>
-    <t>QUE EL PROGRAMA DESARROLLADO SEA SIMPLE Y EFECTIVO</t>
-  </si>
-  <si>
-    <t>AGILIZAR PROCESOS DE COMPRA Y VENTA DE MERCADERIA</t>
-  </si>
-  <si>
-    <t>SISTEMA AMIGABLE PARA CUALQUIER PERSONA, SIN NECESIDAD DE CONOCIMIENTOS AVANZADOS</t>
+    <t>INGRESO AL SISTEMA</t>
+  </si>
+  <si>
+    <t>ENCARGADO DE VENTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario tendra acceso a la base de datos para la ventas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEDER AL SISTEMA PARA REGISTRAR LAS VENTAS </t>
   </si>
   <si>
     <t>REQ004</t>
   </si>
   <si>
-    <t>SISTEMA INTUITIVO-MENU DE  HERRAMIENTAS</t>
-  </si>
-  <si>
-    <t>LAS FUNCIONES DEL PROGRAMA ORGANIZADAS EN UN MENU DEBEN SER INTUITIVAS Y QUE TRABAJEN CONFORME A SUS NECESIDADES</t>
-  </si>
-  <si>
-    <t>AGILIZAR EL PROCESO DE CONSULTA DE CADA ELEMENTO DEL STOCK, CON UN MENU FACIL DE UTILIZAR</t>
-  </si>
-  <si>
-    <t>OPCIONES INTUITIVAS EN EL MENU Y DE FÁCIL ENTENDIMIENTO</t>
+    <t>BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>Crear una base de datos digitalizada en la que consten los productos y sus especificaciones (cantidad y talla)</t>
+  </si>
+  <si>
+    <t>Llevar un registro detallado del stock que se posee (cantidad y tallas).</t>
+  </si>
+  <si>
+    <t>REQ006</t>
+  </si>
+  <si>
+    <t>Visualizar inventario</t>
+  </si>
+  <si>
+    <t>Propietaria de empresa (Piedad Gallardo)</t>
+  </si>
+  <si>
+    <t>Ver el inventario actual</t>
+  </si>
+  <si>
+    <t>Conocer el estado de las existencias y hacer pedidos si es necesario</t>
+  </si>
+  <si>
+    <t>La información debe estar actualizada en tiempo real</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>En desarrollo</t>
+  </si>
+  <si>
+    <t>REQ007</t>
+  </si>
+  <si>
+    <t>Resgistrar ventas</t>
+  </si>
+  <si>
+    <t>Gerente de ventas</t>
+  </si>
+  <si>
+    <t>Registrar una nueva venta</t>
+  </si>
+  <si>
+    <t>Actualizar el inventario automáticamente</t>
+  </si>
+  <si>
+    <t>La venta debe descontar el inventario de manera inmediata</t>
+  </si>
+  <si>
+    <t>REQ008</t>
+  </si>
+  <si>
+    <t>Ingresar mercaderia</t>
+  </si>
+  <si>
+    <t>Personal de almacén</t>
+  </si>
+  <si>
+    <t>Ingresar nueva mercancía al sistema</t>
+  </si>
+  <si>
+    <t>Mantener el inventario actualizado</t>
+  </si>
+  <si>
+    <t>Cada ingreso de mercancía debe generar un recibo digital</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>REQ009</t>
+  </si>
+  <si>
+    <t>Generar reportes</t>
+  </si>
+  <si>
+    <t>Administrador del sistema</t>
+  </si>
+  <si>
+    <t>Generar reportes de inventario</t>
+  </si>
+  <si>
+    <t>Analizar las tendencias de ventas y stock</t>
+  </si>
+  <si>
+    <t>Los reportes deben ser exportables a formatos comunes (CSV, PDF)</t>
   </si>
   <si>
     <t>SPRINT 1</t>
@@ -151,9 +227,6 @@
     <t>Cada tipo de usuario tiene su respectivo apartado de trabajo.</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>Terminado</t>
   </si>
   <si>
@@ -203,9 +276,6 @@
   </si>
   <si>
     <t>Verificar la distinta vista</t>
-  </si>
-  <si>
-    <t>Alta</t>
   </si>
   <si>
     <t>Joel Rivera</t>
@@ -330,7 +400,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -354,16 +424,27 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -377,22 +458,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -404,7 +469,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,12 +480,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -460,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border/>
     <border>
       <left style="medium">
@@ -569,44 +628,10 @@
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -620,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -638,149 +663,149 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf borderId="7" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="10" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="12" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="10" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="10" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="12" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="10" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="6" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="12" fillId="9" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="10" fillId="8" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -880,11 +905,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1951319409"/>
-        <c:axId val="962593107"/>
+        <c:axId val="1577829920"/>
+        <c:axId val="548944760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1951319409"/>
+        <c:axId val="1577829920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,10 +961,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="962593107"/>
+        <c:crossAx val="548944760"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="962593107"/>
+        <c:axId val="548944760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1039,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1951319409"/>
+        <c:crossAx val="1577829920"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1293,7 +1318,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="12.5"/>
-    <col customWidth="1" min="2" max="2" width="26.75"/>
+    <col customWidth="1" min="2" max="2" width="34.38"/>
     <col customWidth="1" min="3" max="3" width="36.0"/>
     <col customWidth="1" min="4" max="4" width="30.25"/>
     <col customWidth="1" min="5" max="5" width="55.5"/>
@@ -1334,153 +1359,218 @@
         <v>8</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" ht="46.5" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" ht="46.5" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" ht="46.5" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="42.75" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" ht="56.25" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" ht="42.75" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" ht="56.25" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" ht="28.5" customHeight="1">
+      <c r="A7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="B7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" ht="28.5" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="C7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" ht="29.25" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="27"/>
+      <c r="A8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" ht="63.0" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1"/>
+      <c r="A9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -2472,11 +2562,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H9">
-      <formula1>$L$20:$L$23</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
@@ -2506,301 +2591,301 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="A2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>37</v>
+      <c r="H3" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>44</v>
+      <c r="C4" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38" t="s">
-        <v>47</v>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="40">
+      <c r="B6" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="37">
         <v>2.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="40">
+      <c r="B7" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="37">
         <v>2.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="39" t="s">
-        <v>53</v>
+      <c r="B8" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37">
+        <v>79</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34">
         <v>1.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="H9" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="42">
+      <c r="H9" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="34">
         <f>SUM(I6:I8)</f>
         <v>5</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="34" t="s">
+      <c r="E10" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" ht="27.0" customHeight="1">
+      <c r="B11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" ht="27.0" customHeight="1">
-      <c r="B11" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>44</v>
+      <c r="I11" s="39" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
-        <v>47</v>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="G13" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="45">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="G13" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="41">
         <v>2.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="G14" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="45">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="G14" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="41">
         <v>2.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="G15" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="G15" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34">
         <v>1.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="47">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="43">
         <f>SUM(I13:I15)</f>
         <v>5</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" ht="24.0" customHeight="1">
+      <c r="B18" s="39"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" ht="24.0" customHeight="1">
-      <c r="B18" s="43"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>44</v>
+      <c r="I18" s="48" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="38"/>
-      <c r="G19" s="38" t="s">
-        <v>46</v>
+      <c r="C19" s="35"/>
+      <c r="G19" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="37">
+        <v>86</v>
+      </c>
+      <c r="I20" s="34">
         <v>1.0</v>
       </c>
     </row>
@@ -2808,9 +2893,9 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="37">
+        <v>86</v>
+      </c>
+      <c r="I21" s="34">
         <v>1.0</v>
       </c>
     </row>
@@ -2818,82 +2903,82 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="37">
+        <v>86</v>
+      </c>
+      <c r="I22" s="34">
         <v>3.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="H23" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="42">
+      <c r="H23" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="34">
         <f>SUM(I20:I22)</f>
         <v>5</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="34" t="s">
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="39"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="43"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="52" t="s">
-        <v>44</v>
+      <c r="I27" s="48" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="38"/>
-      <c r="G28" s="38" t="s">
-        <v>46</v>
+      <c r="C28" s="35"/>
+      <c r="G28" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="37">
+        <v>86</v>
+      </c>
+      <c r="I29" s="34">
         <v>2.0</v>
       </c>
     </row>
@@ -2901,9 +2986,9 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="37">
+        <v>86</v>
+      </c>
+      <c r="I30" s="34">
         <v>2.0</v>
       </c>
     </row>
@@ -2911,76 +2996,76 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="37">
+        <v>86</v>
+      </c>
+      <c r="I31" s="34">
         <v>2.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="42">
+        <v>86</v>
+      </c>
+      <c r="I32" s="34">
         <v>3.0</v>
       </c>
     </row>
     <row r="33" ht="30.75" customHeight="1">
-      <c r="H33" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="42">
+      <c r="H33" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="34">
         <f>SUM(I29:I32)</f>
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H34" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="39"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="43"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="52" t="s">
-        <v>44</v>
+      <c r="I35" s="48" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="38"/>
-      <c r="G36" s="38" t="s">
-        <v>46</v>
+      <c r="C36" s="35"/>
+      <c r="G36" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" s="37">
+        <v>88</v>
+      </c>
+      <c r="I37" s="34">
         <v>2.0</v>
       </c>
     </row>
@@ -2988,180 +3073,180 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="37">
+        <v>88</v>
+      </c>
+      <c r="I38" s="34">
         <v>2.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="B39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="37">
+        <v>88</v>
+      </c>
+      <c r="I39" s="34">
         <v>4.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="B40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I40" s="42">
+        <v>88</v>
+      </c>
+      <c r="I40" s="34">
         <v>4.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="H41" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I41" s="42">
+      <c r="H41" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="34">
         <f>SUM(I37:I40)</f>
         <v>12</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1"/>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
+      <c r="A43" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="B45" s="39"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I44" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="43"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="I45" s="52" t="s">
-        <v>44</v>
+      <c r="I45" s="48" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="38"/>
-      <c r="G46" s="38" t="s">
-        <v>46</v>
+      <c r="C46" s="35"/>
+      <c r="G46" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="B47" s="4"/>
-      <c r="C47" s="55"/>
+      <c r="C47" s="51"/>
       <c r="G47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="37">
+        <v>90</v>
+      </c>
+      <c r="I47" s="34">
         <v>4.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="B48" s="4"/>
-      <c r="C48" s="55"/>
+      <c r="C48" s="51"/>
       <c r="G48" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="37">
+        <v>90</v>
+      </c>
+      <c r="I48" s="34">
         <v>3.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="B49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="I49" s="37"/>
+      <c r="I49" s="34"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="B50" s="4"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="H51" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I51" s="42">
+      <c r="H51" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="34">
         <f>SUM(I47:I50)</f>
         <v>7</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="H52" s="41"/>
+      <c r="H52" s="38"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I53" s="34" t="s">
-        <v>37</v>
+      <c r="H53" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="43"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="I54" s="52" t="s">
-        <v>44</v>
+      <c r="B54" s="39"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" s="48" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="38"/>
-      <c r="G55" s="38" t="s">
-        <v>46</v>
+      <c r="C55" s="35"/>
+      <c r="G55" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I56" s="37">
+        <v>90</v>
+      </c>
+      <c r="I56" s="34">
         <v>3.0</v>
       </c>
     </row>
@@ -3169,61 +3254,61 @@
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I57" s="37">
+        <v>90</v>
+      </c>
+      <c r="I57" s="34">
         <v>3.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="B58" s="4"/>
-      <c r="C58" s="55"/>
+      <c r="C58" s="51"/>
       <c r="G58" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="37">
+        <v>90</v>
+      </c>
+      <c r="I58" s="34">
         <v>2.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="4"/>
-      <c r="C59" s="55"/>
+      <c r="C59" s="51"/>
       <c r="G59" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I59" s="42">
+        <v>90</v>
+      </c>
+      <c r="I59" s="34">
         <v>2.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="G60" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I60" s="42">
+        <v>90</v>
+      </c>
+      <c r="I60" s="34">
         <v>3.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="H61" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I61" s="42">
+      <c r="H61" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" s="34">
         <f>SUM(I56:I59)</f>
         <v>10</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="H62" s="41"/>
+      <c r="H62" s="38"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="H63" s="41"/>
+      <c r="H63" s="38"/>
     </row>
     <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="H65" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I65" s="42">
+      <c r="H65" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I65" s="34">
         <f>I9+I16+I23+I33+I41</f>
         <v>36</v>
       </c>
@@ -4203,856 +4288,856 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="37" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" ht="15.0" customHeight="1">
+      <c r="B4" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" ht="15.0" customHeight="1">
-      <c r="B4" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="57">
+      <c r="C4" s="53">
         <v>2.0</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="41">
         <v>1.0</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="41">
         <v>1.0</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="41">
         <v>1.0</v>
       </c>
-      <c r="G4" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="58">
+      <c r="G4" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="54">
         <f t="shared" ref="J4:J12" si="1">SUM(D4:H4)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="57">
+      <c r="B5" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="53">
         <v>2.0</v>
       </c>
-      <c r="D5" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="45">
+      <c r="D5" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="41">
         <v>1.0</v>
       </c>
-      <c r="F5" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="45">
+      <c r="F5" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="41">
         <v>1.0</v>
       </c>
-      <c r="H5" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="58">
+      <c r="H5" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="B6" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="59">
+      <c r="B6" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="55">
         <v>1.0</v>
       </c>
-      <c r="D6" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="45">
+      <c r="D6" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="41">
         <v>1.0</v>
       </c>
-      <c r="F6" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="58">
+      <c r="F6" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="60">
+      <c r="B7" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="56">
         <v>2.0</v>
       </c>
-      <c r="D7" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="45">
+      <c r="D7" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="41">
         <v>1.0</v>
       </c>
-      <c r="F7" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="45">
+      <c r="F7" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="41">
         <v>1.0</v>
       </c>
-      <c r="H7" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="58">
+      <c r="H7" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="60">
+      <c r="B8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="56">
         <v>2.0</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="41">
         <v>1.0</v>
       </c>
-      <c r="E8" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="45">
+      <c r="E8" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="41">
         <v>1.0</v>
       </c>
-      <c r="G8" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="58">
+      <c r="G8" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="61">
+      <c r="B9" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="57">
         <v>1.0</v>
       </c>
-      <c r="D9" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="45">
+      <c r="D9" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="41">
         <v>1.0</v>
       </c>
-      <c r="F9" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="58">
+      <c r="F9" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="61">
+        <v>103</v>
+      </c>
+      <c r="C10" s="57">
         <v>1.0</v>
       </c>
-      <c r="D10" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="45">
+      <c r="D10" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="41">
         <v>1.0</v>
       </c>
-      <c r="H10" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="58">
+      <c r="H10" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="61">
+        <v>104</v>
+      </c>
+      <c r="C11" s="57">
         <v>1.0</v>
       </c>
-      <c r="D11" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="45">
+      <c r="D11" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="41">
         <v>1.0</v>
       </c>
-      <c r="H11" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="58">
+      <c r="H11" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="61">
+        <v>105</v>
+      </c>
+      <c r="C12" s="57">
         <v>3.0</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="41">
         <v>1.0</v>
       </c>
-      <c r="E12" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="45">
+      <c r="E12" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="41">
         <v>2.0</v>
       </c>
-      <c r="G12" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="58">
+      <c r="G12" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="54">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="37"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="59">
+        <v>106</v>
+      </c>
+      <c r="C13" s="55">
         <v>2.0</v>
       </c>
-      <c r="D13" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="37">
+      <c r="D13" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="34">
         <v>1.0</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="41">
         <v>1.0</v>
       </c>
-      <c r="G13" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="58">
+      <c r="G13" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="54">
         <f t="shared" ref="J13:J14" si="2">SUM(E13:I13)</f>
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="37"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="59">
+        <v>107</v>
+      </c>
+      <c r="C14" s="55">
         <v>2.0</v>
       </c>
-      <c r="D14" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="37">
+      <c r="D14" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="34">
         <v>1.0</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="41">
         <v>1.0</v>
       </c>
-      <c r="G14" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="58">
+      <c r="G14" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="54">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="59">
+        <v>108</v>
+      </c>
+      <c r="C15" s="55">
         <v>2.0</v>
       </c>
-      <c r="D15" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="45">
+      <c r="D15" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="41">
         <v>1.0</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="41">
         <v>1.0</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="58">
+      <c r="H15" s="41"/>
+      <c r="I15" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="54">
         <f t="shared" ref="J15:J20" si="3">SUM(D15:I15)</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="37"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="62">
+        <v>109</v>
+      </c>
+      <c r="C16" s="58">
         <v>3.0</v>
       </c>
-      <c r="D16" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="42">
+      <c r="D16" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="34">
         <v>1.0</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="34">
         <v>1.0</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="34">
         <v>1.0</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="54">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="37"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="37">
+        <v>110</v>
+      </c>
+      <c r="C17" s="34">
         <v>2.0</v>
       </c>
-      <c r="D17" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="42">
+      <c r="D17" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="34">
         <v>1.0</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="34">
         <v>1.0</v>
       </c>
-      <c r="G17" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="58">
+      <c r="G17" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="54">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="37">
+        <v>111</v>
+      </c>
+      <c r="C18" s="34">
         <v>2.0</v>
       </c>
-      <c r="D18" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="42">
+      <c r="D18" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="34">
         <v>2.0</v>
       </c>
-      <c r="G18" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="58">
+      <c r="G18" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="54">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="37"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="37">
+        <v>112</v>
+      </c>
+      <c r="C19" s="34">
         <v>4.0</v>
       </c>
-      <c r="D19" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="42">
+      <c r="D19" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="34">
         <v>2.0</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="34">
         <v>2.0</v>
       </c>
-      <c r="I19" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="58">
+      <c r="I19" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="54">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="37"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="42">
+        <v>113</v>
+      </c>
+      <c r="C20" s="34">
         <v>4.0</v>
       </c>
-      <c r="D20" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="42">
+      <c r="D20" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="34">
         <v>1.0</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="34">
         <v>2.0</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="54">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="37">
+        <v>114</v>
+      </c>
+      <c r="C21" s="34">
         <v>4.0</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="34">
         <v>2.0</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="34">
         <v>2.0</v>
       </c>
-      <c r="F21" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="58">
+      <c r="F21" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="54">
         <f>SUM(D21:H21)</f>
         <v>4</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="37"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="37">
+        <v>115</v>
+      </c>
+      <c r="C22" s="34">
         <v>3.0</v>
       </c>
-      <c r="D22" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E22" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="42">
+      <c r="D22" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="34">
         <v>1.0</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="34">
         <v>2.0</v>
       </c>
-      <c r="H22" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="I22" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J22" s="58">
+      <c r="H22" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="54">
         <f>SUM(D22:G22)</f>
         <v>3</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="37"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="37">
+        <v>116</v>
+      </c>
+      <c r="C23" s="34">
         <v>3.0</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="34">
         <v>3.0</v>
       </c>
-      <c r="E23" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G23" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="58">
+      <c r="E23" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="54">
         <f t="shared" ref="J23:J27" si="4">SUM(D23:I23)</f>
         <v>3</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="37"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="37">
+        <v>117</v>
+      </c>
+      <c r="C24" s="34">
         <v>3.0</v>
       </c>
-      <c r="D24" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="42">
+      <c r="D24" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="34">
         <v>2.0</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="34">
         <v>1.0</v>
       </c>
-      <c r="G24" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="58">
+      <c r="G24" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="54">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="37"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="37">
+        <v>118</v>
+      </c>
+      <c r="C25" s="34">
         <v>2.0</v>
       </c>
-      <c r="D25" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="42">
+      <c r="D25" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="34">
         <v>2.0</v>
       </c>
-      <c r="G25" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="I25" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="58">
+      <c r="G25" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="54">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="37"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="42">
+        <v>119</v>
+      </c>
+      <c r="C26" s="34">
         <v>2.0</v>
       </c>
-      <c r="D26" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="42">
+      <c r="D26" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="34">
         <v>1.0</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="34">
         <v>1.0</v>
       </c>
-      <c r="I26" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="58">
+      <c r="I26" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="54">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="42">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="34">
         <v>3.0</v>
       </c>
-      <c r="D27" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F27" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G27" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="I27" s="42">
+      <c r="D27" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="34">
         <v>3.0</v>
       </c>
-      <c r="J27" s="58">
+      <c r="J27" s="54">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="37"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="4"/>
-      <c r="J28" s="63">
+      <c r="J28" s="59">
         <f>SUBTOTAL(109,burdonchart!$J$4:$J$27)</f>
         <v>56</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="37"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="37"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="4"/>
-      <c r="L30" s="64"/>
+      <c r="L30" s="60"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="37"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="4"/>
-      <c r="L31" s="64"/>
+      <c r="L31" s="60"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="37"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="37"/>
+      <c r="A33" s="34"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="37">
+      <c r="B34" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="34">
         <f>SUM(C4:C27)</f>
         <v>56</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="34">
         <f t="shared" ref="D34:I34" si="5">C34-SUM(D4:D27)</f>
         <v>48</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="34">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="34">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="34">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="34">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="37">
+      <c r="B35" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="34">
         <f>SUM(C4:C27)</f>
         <v>56</v>
       </c>
-      <c r="D35" s="66">
+      <c r="D35" s="62">
         <f t="shared" ref="D35:I35" si="6">C35-($C35/6)</f>
         <v>46.66666667</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="63">
         <f t="shared" si="6"/>
         <v>37.33333333</v>
       </c>
-      <c r="F35" s="67">
+      <c r="F35" s="63">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="63">
         <f t="shared" si="6"/>
         <v>18.66666667</v>
       </c>
-      <c r="H35" s="67">
+      <c r="H35" s="63">
         <f t="shared" si="6"/>
         <v>9.333333333</v>
       </c>
-      <c r="I35" s="67">
+      <c r="I35" s="63">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5060,117 +5145,117 @@
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="13.5" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="K39" s="70" t="s">
-        <v>100</v>
+      <c r="B39" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="K39" s="66" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
     </row>
     <row r="54" ht="21.75" customHeight="1">
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
     </row>
     <row r="55" ht="15.75" customHeight="1"/>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="69"/>
+      <c r="B56" s="65"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="69"/>
+      <c r="B57" s="65"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="69"/>
+      <c r="B58" s="65"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="69"/>
+      <c r="B59" s="65"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="69"/>
+      <c r="B60" s="65"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="69"/>
+      <c r="B61" s="65"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="69"/>
+      <c r="B62" s="65"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="69"/>
+      <c r="B63" s="65"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="69"/>
+      <c r="B64" s="65"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="69"/>
+      <c r="B65" s="65"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="69"/>
+      <c r="B66" s="65"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="69"/>
+      <c r="B67" s="65"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="69"/>
+      <c r="B68" s="65"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="69"/>
+      <c r="B69" s="65"/>
     </row>
     <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>
